--- a/db/Final_Pretrials.xlsx
+++ b/db/Final_Pretrials.xlsx
@@ -225,82 +225,82 @@
     <row r="2" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A2">
         <is>
-          <t xml:space="preserve">20CRB00229</t>
+          <t xml:space="preserve">20TRD03920</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B2">
         <is>
-          <t xml:space="preserve">20CRB00229-A</t>
+          <t xml:space="preserve">20TRD03920-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C2">
         <is>
-          <t xml:space="preserve">HUDSON</t>
+          <t xml:space="preserve">MONTERRUBIO</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D2">
         <is>
-          <t xml:space="preserve">MICHAEL</t>
+          <t xml:space="preserve">MARIO</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E2">
         <is>
-          <t xml:space="preserve">THEFT / M1</t>
+          <t xml:space="preserve">DUS UNDER FRA OR JUDGMENT SUSP</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F2">
         <is>
-          <t xml:space="preserve">2913.02(A)(1)*</t>
+          <t xml:space="preserve">4510.16</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G2">
         <is>
-          <t xml:space="preserve">M1</t>
+          <t xml:space="preserve">UCM</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="H2">
         <is>
-          <t xml:space="preserve">U</t>
+          <t xml:space="preserve">Y</t>
         </is>
       </c>
       <c s="2" t="b" r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">20TRD05086</t>
+          <t xml:space="preserve">20TRD03920</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">20TRD05086-A</t>
+          <t xml:space="preserve">20TRD03920-B</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">HANSON</t>
+          <t xml:space="preserve">MONTERRUBIO</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D3">
         <is>
-          <t xml:space="preserve">DONIVON</t>
+          <t xml:space="preserve">MARIO</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E3">
         <is>
-          <t xml:space="preserve">DUS                                       M1</t>
+          <t xml:space="preserve">FICTITIOUS PLATES</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F3">
         <is>
-          <t xml:space="preserve">4510.11A</t>
+          <t xml:space="preserve">4549.08(A)</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G3">
         <is>
-          <t xml:space="preserve">M1</t>
+          <t xml:space="preserve">M4</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="H3">
@@ -309,38 +309,38 @@
         </is>
       </c>
       <c s="2" t="b" r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">21CRB01084</t>
+          <t xml:space="preserve">20TRD03920</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">21CRB01084-A</t>
+          <t xml:space="preserve">20TRD03920-B</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">DELA CRUZ</t>
+          <t xml:space="preserve">MONTERRUBIO</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D4">
         <is>
-          <t xml:space="preserve">CATHERINE</t>
+          <t xml:space="preserve">MARIO</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E4">
         <is>
-          <t xml:space="preserve">POSSESSION DRUG PARAPHERNALIA</t>
+          <t xml:space="preserve">FICTITIOUS PLATES</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F4">
         <is>
-          <t xml:space="preserve">2925.14(C)</t>
+          <t xml:space="preserve">4549.08(A)</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G4">
@@ -348,45 +348,49 @@
           <t xml:space="preserve">M4</t>
         </is>
       </c>
-      <c s="1" t="str" r="H4"/>
+      <c s="1" t="inlineStr" r="H4">
+        <is>
+          <t xml:space="preserve">Y</t>
+        </is>
+      </c>
       <c s="2" t="b" r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">21CRB01258</t>
+          <t xml:space="preserve">21CRB00420</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">21CRB01258-A</t>
+          <t xml:space="preserve">21CRB00420-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">YOST</t>
+          <t xml:space="preserve">COLEY</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D5">
         <is>
-          <t xml:space="preserve">JAMIE</t>
+          <t xml:space="preserve">AREANNA</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E5">
         <is>
-          <t xml:space="preserve">DRUG PARAPHERNALIA OFFENSE</t>
+          <t xml:space="preserve">OBSTRUCT OFFICIAL BUSINESS</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F5">
         <is>
-          <t xml:space="preserve">2925.14C1</t>
+          <t xml:space="preserve">2921.31</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G5">
         <is>
-          <t xml:space="preserve">M4</t>
+          <t xml:space="preserve">M2</t>
         </is>
       </c>
       <c s="1" t="str" r="H5"/>
@@ -397,37 +401,37 @@
     <row r="6" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">21CRB01326</t>
+          <t xml:space="preserve">21CRB00420</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">21CRB01326-A</t>
+          <t xml:space="preserve">21CRB00420-B</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C6">
         <is>
-          <t xml:space="preserve">TILSON</t>
+          <t xml:space="preserve">COLEY</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D6">
         <is>
-          <t xml:space="preserve">JASON</t>
+          <t xml:space="preserve">AREANNA</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E6">
         <is>
-          <t xml:space="preserve">VIOLATING PROTECTION ORDER M1</t>
+          <t xml:space="preserve">OPEN CONTAINER PROHIBITED</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F6">
         <is>
-          <t xml:space="preserve">2919.27(A)</t>
+          <t xml:space="preserve">4301.62</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G6">
         <is>
-          <t xml:space="preserve">M1</t>
+          <t xml:space="preserve">MM</t>
         </is>
       </c>
       <c s="1" t="str" r="H6"/>
@@ -438,37 +442,37 @@
     <row r="7" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">21CRB01349</t>
+          <t xml:space="preserve">21CRB00629</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">21CRB01349-A</t>
+          <t xml:space="preserve">21CRB00629-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C7">
         <is>
-          <t xml:space="preserve">BIRCHFIELD</t>
+          <t xml:space="preserve">MORGAN</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D7">
         <is>
-          <t xml:space="preserve">DRAKE</t>
+          <t xml:space="preserve">BRISCO</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E7">
         <is>
-          <t xml:space="preserve">DISSEMINATION OF IMAGE OF ANOTHER PERSON</t>
+          <t xml:space="preserve">DOMESTIC VIOLENCE  M1</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F7">
         <is>
-          <t xml:space="preserve">2917.211(B)</t>
+          <t xml:space="preserve">2919.25A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G7">
         <is>
-          <t xml:space="preserve">M3</t>
+          <t xml:space="preserve">M1</t>
         </is>
       </c>
       <c s="1" t="str" r="H7"/>
@@ -479,32 +483,32 @@
     <row r="8" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">21CRB01349</t>
+          <t xml:space="preserve">21CRB00629</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">21CRB01349-B</t>
+          <t xml:space="preserve">21CRB00629-B</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C8">
         <is>
-          <t xml:space="preserve">BIRCHFIELD</t>
+          <t xml:space="preserve">MORGAN</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D8">
         <is>
-          <t xml:space="preserve">DRAKE</t>
+          <t xml:space="preserve">BRISCO</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E8">
         <is>
-          <t xml:space="preserve">TELECOMMUNICATIONS HARASSMENT</t>
+          <t xml:space="preserve">ASSAULT - M1</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F8">
         <is>
-          <t xml:space="preserve">2917.21(A)(1)</t>
+          <t xml:space="preserve">2903.13(A)</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G8">
@@ -520,32 +524,32 @@
     <row r="9" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">21CRB01449</t>
+          <t xml:space="preserve">21CRB00629</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">21CRB01449-A</t>
+          <t xml:space="preserve">21CRB00629-C</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C9">
         <is>
-          <t xml:space="preserve">GORDON</t>
+          <t xml:space="preserve">MORGAN</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D9">
         <is>
-          <t xml:space="preserve">TERRY</t>
+          <t xml:space="preserve">BRISCO</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E9">
         <is>
-          <t xml:space="preserve">ASSAULT - M1</t>
+          <t xml:space="preserve">ENDANGERING CHILDREN</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F9">
         <is>
-          <t xml:space="preserve">2903.13(A)</t>
+          <t xml:space="preserve">2919.22</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G9">
@@ -553,11 +557,7 @@
           <t xml:space="preserve">M1</t>
         </is>
       </c>
-      <c s="1" t="inlineStr" r="H9">
-        <is>
-          <t xml:space="preserve">U</t>
-        </is>
-      </c>
+      <c s="1" t="str" r="H9"/>
       <c s="2" t="b" r="I9">
         <v>0</v>
       </c>
@@ -565,44 +565,40 @@
     <row r="10" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">21CRB01449</t>
+          <t xml:space="preserve">21CRB00629</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">21CRB01449-B</t>
+          <t xml:space="preserve">21CRB00629-D</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C10">
         <is>
-          <t xml:space="preserve">GORDON</t>
+          <t xml:space="preserve">MORGAN</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D10">
         <is>
-          <t xml:space="preserve">TERRY</t>
+          <t xml:space="preserve">BRISCO</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E10">
         <is>
-          <t xml:space="preserve">OBSTRUCT OFFICIAL BUSINESS</t>
+          <t xml:space="preserve">DISORDERLY CONDUCT</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F10">
         <is>
-          <t xml:space="preserve">2921.31</t>
+          <t xml:space="preserve">2917.11A1</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G10">
         <is>
-          <t xml:space="preserve">M2</t>
-        </is>
-      </c>
-      <c s="1" t="inlineStr" r="H10">
-        <is>
-          <t xml:space="preserve">U</t>
-        </is>
-      </c>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="str" r="H10"/>
       <c s="2" t="b" r="I10">
         <v>0</v>
       </c>
@@ -610,44 +606,40 @@
     <row r="11" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">21CRB01449</t>
+          <t xml:space="preserve">21CRB01315</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">21CRB01449-C</t>
+          <t xml:space="preserve">21CRB01315-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C11">
         <is>
-          <t xml:space="preserve">GORDON</t>
+          <t xml:space="preserve">AKERS</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D11">
         <is>
-          <t xml:space="preserve">TERRY</t>
+          <t xml:space="preserve">MEADE</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E11">
         <is>
-          <t xml:space="preserve">DISORDERLY CONDUCT - MM</t>
+          <t xml:space="preserve">TELEPHONE HARASSMENT</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F11">
         <is>
-          <t xml:space="preserve">2917.11(A)(1)*</t>
+          <t xml:space="preserve">2917.21</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G11">
         <is>
-          <t xml:space="preserve">MM</t>
-        </is>
-      </c>
-      <c s="1" t="inlineStr" r="H11">
-        <is>
-          <t xml:space="preserve">U</t>
-        </is>
-      </c>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="str" r="H11"/>
       <c s="2" t="b" r="I11">
         <v>0</v>
       </c>
@@ -655,44 +647,40 @@
     <row r="12" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">21CRB01456</t>
+          <t xml:space="preserve">21CRB01369</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">21CRB01456-A</t>
+          <t xml:space="preserve">21CRB01369-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C12">
         <is>
-          <t xml:space="preserve">TILSON</t>
+          <t xml:space="preserve">WALLACE</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D12">
         <is>
-          <t xml:space="preserve">JASON</t>
+          <t xml:space="preserve">KEVIN</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E12">
         <is>
-          <t xml:space="preserve">CRIMINAL DAMAGING PROPERTY</t>
+          <t xml:space="preserve">DOMESTIC VIOLENCE</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F12">
         <is>
-          <t xml:space="preserve">2909.06(A)</t>
+          <t xml:space="preserve">2919.25(A)</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G12">
         <is>
-          <t xml:space="preserve">M2</t>
-        </is>
-      </c>
-      <c s="1" t="inlineStr" r="H12">
-        <is>
-          <t xml:space="preserve">U</t>
-        </is>
-      </c>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="str" r="H12"/>
       <c s="2" t="b" r="I12">
         <v>0</v>
       </c>
@@ -700,32 +688,32 @@
     <row r="13" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">21CRB01457</t>
+          <t xml:space="preserve">21CRB01369</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">21CRB01457-A</t>
+          <t xml:space="preserve">21CRB01369-B</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C13">
         <is>
-          <t xml:space="preserve">TILSON</t>
+          <t xml:space="preserve">WALLACE</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D13">
         <is>
-          <t xml:space="preserve">JASON</t>
+          <t xml:space="preserve">KEVIN</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E13">
         <is>
-          <t xml:space="preserve">VIOLATING PROTECTION ORDER M1</t>
+          <t xml:space="preserve">ASSAULT - M1</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F13">
         <is>
-          <t xml:space="preserve">2919.27A1*</t>
+          <t xml:space="preserve">2903.13(A)</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G13">
@@ -733,11 +721,7 @@
           <t xml:space="preserve">M1</t>
         </is>
       </c>
-      <c s="1" t="inlineStr" r="H13">
-        <is>
-          <t xml:space="preserve">U</t>
-        </is>
-      </c>
+      <c s="1" t="str" r="H13"/>
       <c s="2" t="b" r="I13">
         <v>0</v>
       </c>
@@ -745,44 +729,40 @@
     <row r="14" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">21CRB01457</t>
+          <t xml:space="preserve">21CRB01369</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B14">
         <is>
-          <t xml:space="preserve">21CRB01457-B</t>
+          <t xml:space="preserve">21CRB01369-C</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C14">
         <is>
-          <t xml:space="preserve">TILSON</t>
+          <t xml:space="preserve">WALLACE</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D14">
         <is>
-          <t xml:space="preserve">JASON</t>
+          <t xml:space="preserve">KEVIN</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E14">
         <is>
-          <t xml:space="preserve">VIOLATING PROTECTION ORDER M1</t>
+          <t xml:space="preserve">DISORDERLY CONDUCT</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F14">
         <is>
-          <t xml:space="preserve">2919.27A1*</t>
+          <t xml:space="preserve">2917.11A1</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G14">
         <is>
-          <t xml:space="preserve">M1</t>
-        </is>
-      </c>
-      <c s="1" t="inlineStr" r="H14">
-        <is>
-          <t xml:space="preserve">U</t>
-        </is>
-      </c>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="str" r="H14"/>
       <c s="2" t="b" r="I14">
         <v>0</v>
       </c>
@@ -790,32 +770,32 @@
     <row r="15" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">21CRB01478</t>
+          <t xml:space="preserve">21CRB01409</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B15">
         <is>
-          <t xml:space="preserve">21CRB01478-A</t>
+          <t xml:space="preserve">21CRB01409-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C15">
         <is>
-          <t xml:space="preserve">MAUCK</t>
+          <t xml:space="preserve">GOULD</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D15">
         <is>
-          <t xml:space="preserve">DONALD</t>
+          <t xml:space="preserve">MICHAEL</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E15">
         <is>
-          <t xml:space="preserve">THEFT / M1</t>
+          <t xml:space="preserve">DOMESTIC VIOLENCE</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F15">
         <is>
-          <t xml:space="preserve">2913.02(A)(1)*</t>
+          <t xml:space="preserve">2919.25(A)</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G15">
@@ -823,11 +803,7 @@
           <t xml:space="preserve">M1</t>
         </is>
       </c>
-      <c s="1" t="inlineStr" r="H15">
-        <is>
-          <t xml:space="preserve">U</t>
-        </is>
-      </c>
+      <c s="1" t="str" r="H15"/>
       <c s="2" t="b" r="I15">
         <v>0</v>
       </c>
@@ -835,32 +811,32 @@
     <row r="16" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">21CRB01487</t>
+          <t xml:space="preserve">21CRB01409</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B16">
         <is>
-          <t xml:space="preserve">21CRB01487-A</t>
+          <t xml:space="preserve">21CRB01409-B</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C16">
         <is>
-          <t xml:space="preserve">ROACH</t>
+          <t xml:space="preserve">GOULD</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D16">
         <is>
-          <t xml:space="preserve">LINDSEY</t>
+          <t xml:space="preserve">MICHAEL</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E16">
         <is>
-          <t xml:space="preserve">PETTY THEFT</t>
+          <t xml:space="preserve">ASSAULT - M1</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F16">
         <is>
-          <t xml:space="preserve">2913.02</t>
+          <t xml:space="preserve">2903.13(A)</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G16">
@@ -868,11 +844,7 @@
           <t xml:space="preserve">M1</t>
         </is>
       </c>
-      <c s="1" t="inlineStr" r="H16">
-        <is>
-          <t xml:space="preserve">U</t>
-        </is>
-      </c>
+      <c s="1" t="str" r="H16"/>
       <c s="2" t="b" r="I16">
         <v>0</v>
       </c>
@@ -880,36 +852,44 @@
     <row r="17" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">21CRB01572</t>
+          <t xml:space="preserve">21CRB01467</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B17">
         <is>
-          <t xml:space="preserve">21CRB01572-A</t>
+          <t xml:space="preserve">21CRB01467-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C17">
         <is>
-          <t xml:space="preserve">Ghansah</t>
+          <t xml:space="preserve">KUSKOWSKI</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D17">
         <is>
-          <t xml:space="preserve">Richard</t>
+          <t xml:space="preserve">ANDREA</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E17">
         <is>
-          <t xml:space="preserve">ATTEMPT TO COMMIT AN OFFENSE</t>
+          <t xml:space="preserve">DISORDERLY CONDUCT - M4</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F17">
         <is>
-          <t xml:space="preserve">2923.02*</t>
-        </is>
-      </c>
-      <c s="1" t="str" r="G17"/>
-      <c s="1" t="str" r="H17"/>
+          <t xml:space="preserve">2917.11(A)(1)**</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G17">
+        <is>
+          <t xml:space="preserve">M4</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H17">
+        <is>
+          <t xml:space="preserve">U</t>
+        </is>
+      </c>
       <c s="2" t="b" r="I17">
         <v>0</v>
       </c>
@@ -917,32 +897,32 @@
     <row r="18" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">21CRB01637</t>
+          <t xml:space="preserve">21CRB01481</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B18">
         <is>
-          <t xml:space="preserve">21CRB01637-A</t>
+          <t xml:space="preserve">21CRB01481-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C18">
         <is>
-          <t xml:space="preserve">QUINN</t>
+          <t xml:space="preserve">KUSKOWSKI</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D18">
         <is>
-          <t xml:space="preserve">ASHLEY</t>
+          <t xml:space="preserve">ANDREA</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E18">
         <is>
-          <t xml:space="preserve">POSSESS DRUG PARAPHERNALIA</t>
+          <t xml:space="preserve">DOMESTIC VIOLENCE </t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F18">
         <is>
-          <t xml:space="preserve">2925.14C</t>
+          <t xml:space="preserve">2919.25(C)</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G18">
@@ -962,37 +942,37 @@
     <row r="19" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">21CRB01637</t>
+          <t xml:space="preserve">21CRB01481</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B19">
         <is>
-          <t xml:space="preserve">21CRB01637-B</t>
+          <t xml:space="preserve">21CRB01481-B</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C19">
         <is>
-          <t xml:space="preserve">QUINN</t>
+          <t xml:space="preserve">KUSKOWSKI</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D19">
         <is>
-          <t xml:space="preserve">ASHLEY</t>
+          <t xml:space="preserve">ANDREA</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E19">
         <is>
-          <t xml:space="preserve">POSSESSION OF MARIHUANA</t>
+          <t xml:space="preserve">AGGRAVATED MENACING</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F19">
         <is>
-          <t xml:space="preserve">2925.11C3</t>
+          <t xml:space="preserve">2903.21</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G19">
         <is>
-          <t xml:space="preserve">MM</t>
+          <t xml:space="preserve">M1</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="H19">
@@ -1007,32 +987,32 @@
     <row r="20" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">21TRC06983</t>
+          <t xml:space="preserve">21CRB01520</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B20">
         <is>
-          <t xml:space="preserve">21TRC06983-A</t>
+          <t xml:space="preserve">21CRB01520-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C20">
         <is>
-          <t xml:space="preserve">DELA CRUZ</t>
+          <t xml:space="preserve">YANT</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D20">
         <is>
-          <t xml:space="preserve">CATHERINE</t>
+          <t xml:space="preserve">GREGORY</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E20">
         <is>
-          <t xml:space="preserve">OVI ALCOHOL / DRUGS 2ND</t>
+          <t xml:space="preserve">THEFT / M1</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F20">
         <is>
-          <t xml:space="preserve">4511.19A1A**</t>
+          <t xml:space="preserve">2913.02(A)(1)*</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G20">
@@ -1042,177 +1022,177 @@
       </c>
       <c s="1" t="inlineStr" r="H20">
         <is>
-          <t xml:space="preserve">N</t>
+          <t xml:space="preserve">U</t>
         </is>
       </c>
       <c s="2" t="b" r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">21TRC06983</t>
+          <t xml:space="preserve">21CRB01520</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B21">
         <is>
-          <t xml:space="preserve">21TRC06983-B</t>
+          <t xml:space="preserve">21CRB01520-B</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C21">
         <is>
-          <t xml:space="preserve">DELA CRUZ</t>
+          <t xml:space="preserve">YANT</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D21">
         <is>
-          <t xml:space="preserve">CATHERINE</t>
+          <t xml:space="preserve">GREGORY</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E21">
         <is>
-          <t xml:space="preserve">OVI REFUSAL 2ND/10YR PRIOR 20YR</t>
+          <t xml:space="preserve">CRIMINAL TRESPASS</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F21">
         <is>
-          <t xml:space="preserve">4511.19A2A**</t>
+          <t xml:space="preserve">2911.21</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G21">
         <is>
-          <t xml:space="preserve">M1</t>
+          <t xml:space="preserve">M4</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="H21">
         <is>
-          <t xml:space="preserve">N</t>
+          <t xml:space="preserve">U</t>
         </is>
       </c>
       <c s="2" t="b" r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">21TRC06983</t>
+          <t xml:space="preserve">21CRB01521</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B22">
         <is>
-          <t xml:space="preserve">21TRC06983-C</t>
+          <t xml:space="preserve">21CRB01521-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C22">
         <is>
-          <t xml:space="preserve">DELA CRUZ</t>
+          <t xml:space="preserve">YANT</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D22">
         <is>
-          <t xml:space="preserve">CATHERINE</t>
+          <t xml:space="preserve">JEANNE</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E22">
         <is>
-          <t xml:space="preserve">DUS UNDER FRA OR JUDGMENT SUSP</t>
+          <t xml:space="preserve">THEFT / M1</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F22">
         <is>
-          <t xml:space="preserve">4510.16</t>
+          <t xml:space="preserve">2913.02(A)(1)*</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G22">
         <is>
-          <t xml:space="preserve">UCM</t>
+          <t xml:space="preserve">M1</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="H22">
         <is>
-          <t xml:space="preserve">N</t>
+          <t xml:space="preserve">U</t>
         </is>
       </c>
       <c s="2" t="b" r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">21TRC06983</t>
+          <t xml:space="preserve">21CRB01521</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B23">
         <is>
-          <t xml:space="preserve">21TRC06983-D</t>
+          <t xml:space="preserve">21CRB01521-B</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C23">
         <is>
-          <t xml:space="preserve">DELA CRUZ</t>
+          <t xml:space="preserve">YANT</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D23">
         <is>
-          <t xml:space="preserve">CATHERINE</t>
+          <t xml:space="preserve">JEANNE</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E23">
         <is>
-          <t xml:space="preserve">TURN &amp; STOP SIGNALS</t>
+          <t xml:space="preserve">CRIMINAL TRESPASS</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F23">
         <is>
-          <t xml:space="preserve">4511.39</t>
+          <t xml:space="preserve">2911.21</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G23">
         <is>
-          <t xml:space="preserve">MM</t>
+          <t xml:space="preserve">M4</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="H23">
         <is>
-          <t xml:space="preserve">N</t>
+          <t xml:space="preserve">U</t>
         </is>
       </c>
       <c s="2" t="b" r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">21TRC08566</t>
+          <t xml:space="preserve">21CRB01543</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B24">
         <is>
-          <t xml:space="preserve">21TRC08566-A</t>
+          <t xml:space="preserve">21CRB01543-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C24">
         <is>
-          <t xml:space="preserve">JOHNSON</t>
+          <t xml:space="preserve">GOLDEN</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D24">
         <is>
-          <t xml:space="preserve">AMANDA</t>
+          <t xml:space="preserve">ASHLA</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E24">
         <is>
-          <t xml:space="preserve">OVI ALCOHOL / DRUGS 1ST</t>
+          <t xml:space="preserve">THEFT / M1</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F24">
         <is>
-          <t xml:space="preserve">4511.19A1A*</t>
+          <t xml:space="preserve">2913.02(A)(1)*</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G24">
@@ -1222,42 +1202,42 @@
       </c>
       <c s="1" t="inlineStr" r="H24">
         <is>
-          <t xml:space="preserve">N</t>
+          <t xml:space="preserve">U</t>
         </is>
       </c>
       <c s="2" t="b" r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">21TRC08566</t>
+          <t xml:space="preserve">21CRB01544</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B25">
         <is>
-          <t xml:space="preserve">21TRC08566-B</t>
+          <t xml:space="preserve">21CRB01544-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C25">
         <is>
-          <t xml:space="preserve">JOHNSON</t>
+          <t xml:space="preserve">GOLDEN</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D25">
         <is>
-          <t xml:space="preserve">AMANDA</t>
+          <t xml:space="preserve">ASHLA</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E25">
         <is>
-          <t xml:space="preserve">OVI REFUSAL 1ST/10YR PRIOR 20YR</t>
+          <t xml:space="preserve">THEFT / M1</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F25">
         <is>
-          <t xml:space="preserve">4511.19A2*</t>
+          <t xml:space="preserve">2913.02(A)(1)*</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G25">
@@ -1267,42 +1247,42 @@
       </c>
       <c s="1" t="inlineStr" r="H25">
         <is>
-          <t xml:space="preserve">N</t>
+          <t xml:space="preserve">U</t>
         </is>
       </c>
       <c s="2" t="b" r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">21TRC08868</t>
+          <t xml:space="preserve">21CRB01556</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B26">
         <is>
-          <t xml:space="preserve">21TRC08868-A</t>
+          <t xml:space="preserve">21CRB01556-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C26">
         <is>
-          <t xml:space="preserve">CORBIN</t>
+          <t xml:space="preserve">THORNTON</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D26">
         <is>
-          <t xml:space="preserve">ANDY</t>
+          <t xml:space="preserve">OVANTE</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E26">
         <is>
-          <t xml:space="preserve">OVI ALCOHOL / DRUGS 1ST</t>
+          <t xml:space="preserve">THEFT / M1</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F26">
         <is>
-          <t xml:space="preserve">4511.19A1A*</t>
+          <t xml:space="preserve">2913.02(A)(1)*</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G26">
@@ -1312,42 +1292,42 @@
       </c>
       <c s="1" t="inlineStr" r="H26">
         <is>
-          <t xml:space="preserve">Y</t>
+          <t xml:space="preserve">U</t>
         </is>
       </c>
       <c s="2" t="b" r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A27">
         <is>
-          <t xml:space="preserve">21TRC08868</t>
+          <t xml:space="preserve">21CRB01581</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B27">
         <is>
-          <t xml:space="preserve">21TRC08868-B</t>
+          <t xml:space="preserve">21CRB01581-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C27">
         <is>
-          <t xml:space="preserve">CORBIN</t>
+          <t xml:space="preserve">ANDERSON</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D27">
         <is>
-          <t xml:space="preserve">ANDY</t>
+          <t xml:space="preserve">MICAH</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E27">
         <is>
-          <t xml:space="preserve">OVI REFUSAL 1ST/10YR PRIOR 20YR</t>
+          <t xml:space="preserve">THEFT / M1</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F27">
         <is>
-          <t xml:space="preserve">4511.19A2*</t>
+          <t xml:space="preserve">2913.02(A)(1)*</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G27">
@@ -1355,44 +1335,40 @@
           <t xml:space="preserve">M1</t>
         </is>
       </c>
-      <c s="1" t="inlineStr" r="H27">
-        <is>
-          <t xml:space="preserve">Y</t>
-        </is>
-      </c>
+      <c s="1" t="str" r="H27"/>
       <c s="2" t="b" r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A28">
         <is>
-          <t xml:space="preserve">21TRC08868</t>
+          <t xml:space="preserve">21CRB01599</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B28">
         <is>
-          <t xml:space="preserve">21TRC08868-C</t>
+          <t xml:space="preserve">21CRB01599-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C28">
         <is>
-          <t xml:space="preserve">CORBIN</t>
+          <t xml:space="preserve">ESPOSITO</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D28">
         <is>
-          <t xml:space="preserve">ANDY</t>
+          <t xml:space="preserve">AMY</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E28">
         <is>
-          <t xml:space="preserve">OVI- DRUG METHAMPHETAMINE &lt;500 NG/ML</t>
+          <t xml:space="preserve">TELEPHONE HARASSMENT</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F28">
         <is>
-          <t xml:space="preserve">4511.19A1jix</t>
+          <t xml:space="preserve">2917.21(A)(1)</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G28">
@@ -1400,44 +1376,40 @@
           <t xml:space="preserve">M1</t>
         </is>
       </c>
-      <c s="1" t="inlineStr" r="H28">
-        <is>
-          <t xml:space="preserve">Y</t>
-        </is>
-      </c>
+      <c s="1" t="str" r="H28"/>
       <c s="2" t="b" r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A29">
         <is>
-          <t xml:space="preserve">21TRC08868</t>
+          <t xml:space="preserve">21CRB01601</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B29">
         <is>
-          <t xml:space="preserve">21TRC08868-D</t>
+          <t xml:space="preserve">21CRB01601-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C29">
         <is>
-          <t xml:space="preserve">CORBIN</t>
+          <t xml:space="preserve">FULK</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D29">
         <is>
-          <t xml:space="preserve">ANDY</t>
+          <t xml:space="preserve">JOSEPH</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E29">
         <is>
-          <t xml:space="preserve">OVI- DRUG MARIJUANA METABOLITE</t>
+          <t xml:space="preserve">CARRYING CONCEALED WEAPON-MISD</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F29">
         <is>
-          <t xml:space="preserve">4511.19A1Jviii</t>
+          <t xml:space="preserve">2923.12(A)</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G29">
@@ -1445,179 +1417,167 @@
           <t xml:space="preserve">M1</t>
         </is>
       </c>
-      <c s="1" t="inlineStr" r="H29">
-        <is>
-          <t xml:space="preserve">Y</t>
-        </is>
-      </c>
+      <c s="1" t="str" r="H29"/>
       <c s="2" t="b" r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A30">
         <is>
-          <t xml:space="preserve">21TRC08868</t>
+          <t xml:space="preserve">21CRB01607</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B30">
         <is>
-          <t xml:space="preserve">21TRC08868-E</t>
+          <t xml:space="preserve">21CRB01607-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C30">
         <is>
-          <t xml:space="preserve">CORBIN</t>
+          <t xml:space="preserve">SILER</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D30">
         <is>
-          <t xml:space="preserve">ANDY</t>
+          <t xml:space="preserve">AMY</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E30">
         <is>
-          <t xml:space="preserve">DRIVING IN MARKED LANES</t>
+          <t xml:space="preserve">THEFT / M1</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F30">
         <is>
-          <t xml:space="preserve">331.08</t>
+          <t xml:space="preserve">2913.02(A)(1)*</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G30">
         <is>
-          <t xml:space="preserve">MM</t>
-        </is>
-      </c>
-      <c s="1" t="inlineStr" r="H30">
-        <is>
-          <t xml:space="preserve">Y</t>
-        </is>
-      </c>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="str" r="H30"/>
       <c s="2" t="b" r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A31">
         <is>
-          <t xml:space="preserve">21TRC09518</t>
+          <t xml:space="preserve">21CRB01619</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B31">
         <is>
-          <t xml:space="preserve">21TRC09518-A</t>
+          <t xml:space="preserve">21CRB01619-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C31">
         <is>
-          <t xml:space="preserve">RING</t>
+          <t xml:space="preserve">HIMES</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D31">
         <is>
-          <t xml:space="preserve">ROBIN</t>
+          <t xml:space="preserve">JEFFREY</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E31">
         <is>
-          <t xml:space="preserve">OVI ALCOHOL / DRUGS 1ST</t>
+          <t xml:space="preserve">OBSTRUCT OFFICIAL BUSINESS</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F31">
         <is>
-          <t xml:space="preserve">4511.19A1A*</t>
+          <t xml:space="preserve">2921.31</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G31">
         <is>
-          <t xml:space="preserve">M1</t>
+          <t xml:space="preserve">M2</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="H31">
         <is>
-          <t xml:space="preserve">Y</t>
+          <t xml:space="preserve">U</t>
         </is>
       </c>
       <c s="2" t="b" r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A32">
         <is>
-          <t xml:space="preserve">21TRC09518</t>
+          <t xml:space="preserve">21CRB01622</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B32">
         <is>
-          <t xml:space="preserve">21TRC09518-B</t>
+          <t xml:space="preserve">21CRB01622-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C32">
         <is>
-          <t xml:space="preserve">RING</t>
+          <t xml:space="preserve">Freeman</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D32">
         <is>
-          <t xml:space="preserve">ROBIN</t>
+          <t xml:space="preserve">Ericka</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E32">
         <is>
-          <t xml:space="preserve">DRIVING IN MARKED LANES</t>
+          <t xml:space="preserve">THEFT / M1</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F32">
         <is>
-          <t xml:space="preserve">4511.33</t>
+          <t xml:space="preserve">2913.02(A)(1)*</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G32">
         <is>
-          <t xml:space="preserve">MM</t>
-        </is>
-      </c>
-      <c s="1" t="inlineStr" r="H32">
-        <is>
-          <t xml:space="preserve">Y</t>
-        </is>
-      </c>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="str" r="H32"/>
       <c s="2" t="b" r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A33">
         <is>
-          <t xml:space="preserve">21TRC10274</t>
+          <t xml:space="preserve">21TRC06237</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B33">
         <is>
-          <t xml:space="preserve">21TRC10274-A</t>
+          <t xml:space="preserve">21TRC06237-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C33">
         <is>
-          <t xml:space="preserve">FREEMAN</t>
+          <t xml:space="preserve">SMITH</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D33">
         <is>
-          <t xml:space="preserve">VALERIE</t>
+          <t xml:space="preserve">RICHARD</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E33">
         <is>
-          <t xml:space="preserve">OMVI BLOOD 1ST</t>
+          <t xml:space="preserve">OVI ALCOHOL / DRUGS 1ST</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F33">
         <is>
-          <t xml:space="preserve">4511.19A2*</t>
+          <t xml:space="preserve">4511.19A1A*</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G33">
@@ -1627,7 +1587,7 @@
       </c>
       <c s="1" t="inlineStr" r="H33">
         <is>
-          <t xml:space="preserve">N</t>
+          <t xml:space="preserve">Y</t>
         </is>
       </c>
       <c s="2" t="b" r="I33">
@@ -1637,32 +1597,32 @@
     <row r="34" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A34">
         <is>
-          <t xml:space="preserve">21TRC10326</t>
+          <t xml:space="preserve">21TRC06237</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B34">
         <is>
-          <t xml:space="preserve">21TRC10326-A</t>
+          <t xml:space="preserve">21TRC06237-B</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C34">
         <is>
-          <t xml:space="preserve">Mccoy</t>
+          <t xml:space="preserve">SMITH</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D34">
         <is>
-          <t xml:space="preserve">Matthew</t>
+          <t xml:space="preserve">RICHARD</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E34">
         <is>
-          <t xml:space="preserve">OVI ALCOHOL / DRUGS 1ST</t>
+          <t xml:space="preserve">DUS - DRIVING UNDER OVI SUSP</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F34">
         <is>
-          <t xml:space="preserve">4511.19A1A*</t>
+          <t xml:space="preserve">4510.14</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G34">
@@ -1672,7 +1632,7 @@
       </c>
       <c s="1" t="inlineStr" r="H34">
         <is>
-          <t xml:space="preserve">N</t>
+          <t xml:space="preserve">Y</t>
         </is>
       </c>
       <c s="2" t="b" r="I34">
@@ -1682,32 +1642,32 @@
     <row r="35" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">21TRC10326</t>
+          <t xml:space="preserve">21TRC06237</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B35">
         <is>
-          <t xml:space="preserve">21TRC10326-B</t>
+          <t xml:space="preserve">21TRC06237-C</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C35">
         <is>
-          <t xml:space="preserve">Mccoy</t>
+          <t xml:space="preserve">SMITH</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D35">
         <is>
-          <t xml:space="preserve">Matthew</t>
+          <t xml:space="preserve">RICHARD</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E35">
         <is>
-          <t xml:space="preserve">1ST SPEED 1 YR REDUCED ZONE</t>
+          <t xml:space="preserve">FAIL TO CONTROL</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F35">
         <is>
-          <t xml:space="preserve">4511.21C</t>
+          <t xml:space="preserve">4511.202</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G35">
@@ -1717,7 +1677,7 @@
       </c>
       <c s="1" t="inlineStr" r="H35">
         <is>
-          <t xml:space="preserve">N</t>
+          <t xml:space="preserve">Y</t>
         </is>
       </c>
       <c s="2" t="b" r="I35">
@@ -1727,22 +1687,22 @@
     <row r="36" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">21TRC10364</t>
+          <t xml:space="preserve">21TRC06888</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B36">
         <is>
-          <t xml:space="preserve">21TRC10364-A</t>
+          <t xml:space="preserve">21TRC06888-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C36">
         <is>
-          <t xml:space="preserve">Quinn</t>
+          <t xml:space="preserve">FAIRES</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D36">
         <is>
-          <t xml:space="preserve">Ashley</t>
+          <t xml:space="preserve">DEBORAH</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E36">
@@ -1762,7 +1722,7 @@
       </c>
       <c s="1" t="inlineStr" r="H36">
         <is>
-          <t xml:space="preserve">N</t>
+          <t xml:space="preserve">Y</t>
         </is>
       </c>
       <c s="2" t="b" r="I36">
@@ -1772,32 +1732,32 @@
     <row r="37" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">21TRC10364</t>
+          <t xml:space="preserve">21TRC06888</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B37">
         <is>
-          <t xml:space="preserve">21TRC10364-B</t>
+          <t xml:space="preserve">21TRC06888-B</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C37">
         <is>
-          <t xml:space="preserve">Quinn</t>
+          <t xml:space="preserve">FAIRES</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D37">
         <is>
-          <t xml:space="preserve">Ashley</t>
+          <t xml:space="preserve">DEBORAH</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E37">
         <is>
-          <t xml:space="preserve">LANE VIOLATION</t>
+          <t xml:space="preserve">WEAVING</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F37">
         <is>
-          <t xml:space="preserve">4511.25</t>
+          <t xml:space="preserve">331.34(B)</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G37">
@@ -1807,7 +1767,7 @@
       </c>
       <c s="1" t="inlineStr" r="H37">
         <is>
-          <t xml:space="preserve">N</t>
+          <t xml:space="preserve">Y</t>
         </is>
       </c>
       <c s="2" t="b" r="I37">
@@ -1817,42 +1777,42 @@
     <row r="38" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A38">
         <is>
-          <t xml:space="preserve">21TRC10364</t>
+          <t xml:space="preserve">21TRC08757</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B38">
         <is>
-          <t xml:space="preserve">21TRC10364-C</t>
+          <t xml:space="preserve">21TRC08757-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C38">
         <is>
-          <t xml:space="preserve">Quinn</t>
+          <t xml:space="preserve">YEAMANS</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D38">
         <is>
-          <t xml:space="preserve">Ashley</t>
+          <t xml:space="preserve">MICHAEL</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E38">
         <is>
-          <t xml:space="preserve">OPERATING M V WITH TEMP PERMIT</t>
+          <t xml:space="preserve">OVI ALCOHOL / DRUGS 1ST</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F38">
         <is>
-          <t xml:space="preserve">4507.05</t>
+          <t xml:space="preserve">4511.19A1A*</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G38">
         <is>
-          <t xml:space="preserve">MM</t>
+          <t xml:space="preserve">M1</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="H38">
         <is>
-          <t xml:space="preserve">N</t>
+          <t xml:space="preserve">Y</t>
         </is>
       </c>
       <c s="2" t="b" r="I38">
@@ -1862,32 +1822,32 @@
     <row r="39" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A39">
         <is>
-          <t xml:space="preserve">21TRD08645</t>
+          <t xml:space="preserve">21TRC08757</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B39">
         <is>
-          <t xml:space="preserve">21TRD08645-A</t>
+          <t xml:space="preserve">21TRC08757-B</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C39">
         <is>
-          <t xml:space="preserve">LAMBERT</t>
+          <t xml:space="preserve">YEAMANS</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D39">
         <is>
-          <t xml:space="preserve">BARBARA</t>
+          <t xml:space="preserve">MICHAEL</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E39">
         <is>
-          <t xml:space="preserve">STOPPING AFTER ACCIDENT INFO</t>
+          <t xml:space="preserve">OVI BREATH 1ST .17 &amp; ABOVE</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F39">
         <is>
-          <t xml:space="preserve">4549.02</t>
+          <t xml:space="preserve">4511.19A1H*</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G39">
@@ -1907,32 +1867,32 @@
     <row r="40" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A40">
         <is>
-          <t xml:space="preserve">21TRD08645</t>
+          <t xml:space="preserve">21TRC08757</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B40">
         <is>
-          <t xml:space="preserve">21TRD08645-B</t>
+          <t xml:space="preserve">21TRC08757-C</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C40">
         <is>
-          <t xml:space="preserve">LAMBERT</t>
+          <t xml:space="preserve">YEAMANS</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D40">
         <is>
-          <t xml:space="preserve">BARBARA</t>
+          <t xml:space="preserve">MICHAEL</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E40">
         <is>
-          <t xml:space="preserve">TRAFFIC CONTROL LIGHTS</t>
+          <t xml:space="preserve">DRIVING IN MARKED LANES</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F40">
         <is>
-          <t xml:space="preserve">4511.13C</t>
+          <t xml:space="preserve">4511.33</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G40">
@@ -1952,32 +1912,32 @@
     <row r="41" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A41">
         <is>
-          <t xml:space="preserve">21TRD10159</t>
+          <t xml:space="preserve">21TRC09004</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B41">
         <is>
-          <t xml:space="preserve">21TRD10159-A</t>
+          <t xml:space="preserve">21TRC09004-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C41">
         <is>
-          <t xml:space="preserve">Hamon</t>
+          <t xml:space="preserve">HILL</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D41">
         <is>
-          <t xml:space="preserve">Austin</t>
+          <t xml:space="preserve">CYNTHIA</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E41">
         <is>
-          <t xml:space="preserve">STOPPING AFTER ACCIDENT INFO</t>
+          <t xml:space="preserve">OVI ALCOHOL / DRUGS 1ST</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F41">
         <is>
-          <t xml:space="preserve">4549.02</t>
+          <t xml:space="preserve">4511.19A1A*</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G41">
@@ -1997,32 +1957,32 @@
     <row r="42" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A42">
         <is>
-          <t xml:space="preserve">21TRD10159</t>
+          <t xml:space="preserve">21TRC09004</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B42">
         <is>
-          <t xml:space="preserve">21TRD10159-B</t>
+          <t xml:space="preserve">21TRC09004-B</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C42">
         <is>
-          <t xml:space="preserve">Hamon</t>
+          <t xml:space="preserve">HILL</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D42">
         <is>
-          <t xml:space="preserve">Austin</t>
+          <t xml:space="preserve">CYNTHIA</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E42">
         <is>
-          <t xml:space="preserve">STARTING AND BACKING VEHICLES</t>
+          <t xml:space="preserve">FTY RIGHT OF WAY</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F42">
         <is>
-          <t xml:space="preserve">331.13</t>
+          <t xml:space="preserve">4511.42</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G42">
@@ -2042,32 +2002,32 @@
     <row r="43" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A43">
         <is>
-          <t xml:space="preserve">21TRD10286</t>
+          <t xml:space="preserve">21TRC10061</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B43">
         <is>
-          <t xml:space="preserve">21TRD10286-A</t>
+          <t xml:space="preserve">21TRC10061-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C43">
         <is>
-          <t xml:space="preserve">WICKER</t>
+          <t xml:space="preserve">ANABA</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D43">
         <is>
-          <t xml:space="preserve">JESSICA</t>
+          <t xml:space="preserve">NNEOMA</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E43">
         <is>
-          <t xml:space="preserve">STOP AFTER ACCIDENT PRIVATE PR</t>
+          <t xml:space="preserve">OVI URINE- DRUG MARIJ METABOLITE 35 NANOGRAMS &gt; </t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F43">
         <is>
-          <t xml:space="preserve">335.13</t>
+          <t xml:space="preserve">4511.19A1Jviii(II)</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G43">
@@ -2077,7 +2037,7 @@
       </c>
       <c s="1" t="inlineStr" r="H43">
         <is>
-          <t xml:space="preserve">N</t>
+          <t xml:space="preserve">U</t>
         </is>
       </c>
       <c s="2" t="b" r="I43">
@@ -2087,32 +2047,32 @@
     <row r="44" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A44">
         <is>
-          <t xml:space="preserve">22CRB00017</t>
+          <t xml:space="preserve">21TRC10062</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B44">
         <is>
-          <t xml:space="preserve">22CRB00017-A</t>
+          <t xml:space="preserve">21TRC10062-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C44">
         <is>
-          <t xml:space="preserve">WATSON-WILSON</t>
+          <t xml:space="preserve">Hill</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D44">
         <is>
-          <t xml:space="preserve">YASHUWA</t>
+          <t xml:space="preserve">Cynthia</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E44">
         <is>
-          <t xml:space="preserve">PETTY THEFT</t>
+          <t xml:space="preserve">OVI URINE 1ST .238 &amp; ABOVE</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F44">
         <is>
-          <t xml:space="preserve">513.03(A)(1)</t>
+          <t xml:space="preserve">4511.19A1I*</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G44">
@@ -2122,177 +2082,177 @@
       </c>
       <c s="1" t="inlineStr" r="H44">
         <is>
-          <t xml:space="preserve">U</t>
+          <t xml:space="preserve">Y</t>
         </is>
       </c>
       <c s="2" t="b" r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A45">
         <is>
-          <t xml:space="preserve">22CRB00026</t>
+          <t xml:space="preserve">21TRC10276</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B45">
         <is>
-          <t xml:space="preserve">22CRB00026-A</t>
+          <t xml:space="preserve">21TRC10276-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C45">
         <is>
-          <t xml:space="preserve">SCHEIDERER</t>
+          <t xml:space="preserve">Stone</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D45">
         <is>
-          <t xml:space="preserve">MELISSIA</t>
+          <t xml:space="preserve">Michelle</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E45">
         <is>
-          <t xml:space="preserve">CRIMINAL DAMAGING PROPERTY</t>
+          <t xml:space="preserve">OVI ALCOHOL / DRUGS 1ST</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F45">
         <is>
-          <t xml:space="preserve">2909.06(A)</t>
+          <t xml:space="preserve">4511.19A1A*</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G45">
         <is>
-          <t xml:space="preserve">M2</t>
+          <t xml:space="preserve">M1</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="H45">
         <is>
-          <t xml:space="preserve">U</t>
+          <t xml:space="preserve">Y</t>
         </is>
       </c>
       <c s="2" t="b" r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A46">
         <is>
-          <t xml:space="preserve">22CRB00026</t>
+          <t xml:space="preserve">21TRC10276</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B46">
         <is>
-          <t xml:space="preserve">22CRB00026-B</t>
+          <t xml:space="preserve">21TRC10276-B</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C46">
         <is>
-          <t xml:space="preserve">SCHEIDERER</t>
+          <t xml:space="preserve">Stone</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D46">
         <is>
-          <t xml:space="preserve">MELISSIA</t>
+          <t xml:space="preserve">Michelle</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E46">
         <is>
-          <t xml:space="preserve">DISORDERLY CONDUCT - MM</t>
+          <t xml:space="preserve">STOPPING AFTER ACCIDENT INFO</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F46">
         <is>
-          <t xml:space="preserve">2917.11(A)(1)*</t>
+          <t xml:space="preserve">4549.02</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G46">
         <is>
-          <t xml:space="preserve">MM</t>
+          <t xml:space="preserve">M1</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="H46">
         <is>
-          <t xml:space="preserve">U</t>
+          <t xml:space="preserve">Y</t>
         </is>
       </c>
       <c s="2" t="b" r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A47">
         <is>
-          <t xml:space="preserve">22CRB00106</t>
+          <t xml:space="preserve">21TRC10276</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B47">
         <is>
-          <t xml:space="preserve">22CRB00106-A</t>
+          <t xml:space="preserve">21TRC10276-C</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C47">
         <is>
-          <t xml:space="preserve">JAICKS</t>
+          <t xml:space="preserve">Stone</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D47">
         <is>
-          <t xml:space="preserve">JARED</t>
+          <t xml:space="preserve">Michelle</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E47">
         <is>
-          <t xml:space="preserve">DOMESTIC VIOLENCE</t>
+          <t xml:space="preserve">1ST ACDA IN 1 YR SPEED SECT</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F47">
         <is>
-          <t xml:space="preserve">2919.25(A)</t>
+          <t xml:space="preserve">4511.21A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G47">
         <is>
-          <t xml:space="preserve">M1</t>
+          <t xml:space="preserve">MM</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="H47">
         <is>
-          <t xml:space="preserve">U</t>
+          <t xml:space="preserve">Y</t>
         </is>
       </c>
       <c s="2" t="b" r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A48">
         <is>
-          <t xml:space="preserve">22CRB00106</t>
+          <t xml:space="preserve">21TRC10294</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B48">
         <is>
-          <t xml:space="preserve">22CRB00106-B</t>
+          <t xml:space="preserve">21TRC10294-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C48">
         <is>
-          <t xml:space="preserve">JAICKS</t>
+          <t xml:space="preserve">Kaufman</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D48">
         <is>
-          <t xml:space="preserve">JARED</t>
+          <t xml:space="preserve">Christopher</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E48">
         <is>
-          <t xml:space="preserve">ASSAULT - M1</t>
+          <t xml:space="preserve">OVI ALCOHOL / DRUGS 1ST</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F48">
         <is>
-          <t xml:space="preserve">2903.13(A)</t>
+          <t xml:space="preserve">4511.19A1A*</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G48">
@@ -2302,14 +2262,1705 @@
       </c>
       <c s="1" t="inlineStr" r="H48">
         <is>
+          <t xml:space="preserve">Y</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A49">
+        <is>
+          <t xml:space="preserve">21TRC10294</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B49">
+        <is>
+          <t xml:space="preserve">21TRC10294-B</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C49">
+        <is>
+          <t xml:space="preserve">Kaufman</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D49">
+        <is>
+          <t xml:space="preserve">Christopher</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E49">
+        <is>
+          <t xml:space="preserve">OVI BREATH 1ST</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F49">
+        <is>
+          <t xml:space="preserve">4511.19A1D*</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G49">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H49">
+        <is>
+          <t xml:space="preserve">Y</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A50">
+        <is>
+          <t xml:space="preserve">21TRC10294</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B50">
+        <is>
+          <t xml:space="preserve">21TRC10294-C</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C50">
+        <is>
+          <t xml:space="preserve">Kaufman</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D50">
+        <is>
+          <t xml:space="preserve">Christopher</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E50">
+        <is>
+          <t xml:space="preserve">TURNING AT INTERSECTIONS</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F50">
+        <is>
+          <t xml:space="preserve">4511.36</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G50">
+        <is>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H50">
+        <is>
+          <t xml:space="preserve">Y</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A51">
+        <is>
+          <t xml:space="preserve">21TRC10294</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B51">
+        <is>
+          <t xml:space="preserve">21TRC10294-D</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C51">
+        <is>
+          <t xml:space="preserve">Kaufman</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D51">
+        <is>
+          <t xml:space="preserve">Christopher</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E51">
+        <is>
+          <t xml:space="preserve">DRIVING IN MARKED LANES</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F51">
+        <is>
+          <t xml:space="preserve">4511.33</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G51">
+        <is>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H51">
+        <is>
+          <t xml:space="preserve">Y</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A52">
+        <is>
+          <t xml:space="preserve">21TRC10315</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B52">
+        <is>
+          <t xml:space="preserve">21TRC10315-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C52">
+        <is>
+          <t xml:space="preserve">Voltz</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D52">
+        <is>
+          <t xml:space="preserve">Cory</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E52">
+        <is>
+          <t xml:space="preserve">OVI ALCOHOL / DRUGS 1ST</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F52">
+        <is>
+          <t xml:space="preserve">4511.19A1A*</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G52">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H52">
+        <is>
+          <t xml:space="preserve">Y</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A53">
+        <is>
+          <t xml:space="preserve">21TRC10315</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B53">
+        <is>
+          <t xml:space="preserve">21TRC10315-B</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C53">
+        <is>
+          <t xml:space="preserve">Voltz</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D53">
+        <is>
+          <t xml:space="preserve">Cory</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E53">
+        <is>
+          <t xml:space="preserve">OVI BREATH 1ST .17 &amp; ABOVE</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F53">
+        <is>
+          <t xml:space="preserve">4511.19A1H*</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G53">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H53">
+        <is>
+          <t xml:space="preserve">Y</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A54">
+        <is>
+          <t xml:space="preserve">21TRC10316</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B54">
+        <is>
+          <t xml:space="preserve">21TRC10316-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C54">
+        <is>
+          <t xml:space="preserve">Lehmann</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D54">
+        <is>
+          <t xml:space="preserve">Melissa</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E54">
+        <is>
+          <t xml:space="preserve">OVI ALCOHOL / DRUGS 1ST</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F54">
+        <is>
+          <t xml:space="preserve">4511.19A1A*</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G54">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H54">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A55">
+        <is>
+          <t xml:space="preserve">21TRC10316</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B55">
+        <is>
+          <t xml:space="preserve">21TRC10316-B</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C55">
+        <is>
+          <t xml:space="preserve">Lehmann</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D55">
+        <is>
+          <t xml:space="preserve">Melissa</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E55">
+        <is>
+          <t xml:space="preserve">RIGHT OF WAY (HWY) STOP SIGNS</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F55">
+        <is>
+          <t xml:space="preserve">4511.43A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G55">
+        <is>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H55">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A56">
+        <is>
+          <t xml:space="preserve">21TRC10368</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B56">
+        <is>
+          <t xml:space="preserve">21TRC10368-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C56">
+        <is>
+          <t xml:space="preserve">Sobers</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D56">
+        <is>
+          <t xml:space="preserve">Chad</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E56">
+        <is>
+          <t xml:space="preserve">OVI ALCOHOL / DRUGS 1ST</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F56">
+        <is>
+          <t xml:space="preserve">4511.19A1A*</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G56">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H56">
+        <is>
           <t xml:space="preserve">U</t>
         </is>
       </c>
-      <c s="2" t="b" r="I48">
+      <c s="2" t="b" r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A57">
+        <is>
+          <t xml:space="preserve">21TRC10368</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B57">
+        <is>
+          <t xml:space="preserve">21TRC10368-B</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C57">
+        <is>
+          <t xml:space="preserve">Sobers</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D57">
+        <is>
+          <t xml:space="preserve">Chad</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E57">
+        <is>
+          <t xml:space="preserve">OPEN CONTAINER PROHIBITED</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F57">
+        <is>
+          <t xml:space="preserve">4301.62</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G57">
+        <is>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H57">
+        <is>
+          <t xml:space="preserve">U</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I57">
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="23.5" customHeight="1"/>
+    <row r="58" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A58">
+        <is>
+          <t xml:space="preserve">21TRD03118</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B58">
+        <is>
+          <t xml:space="preserve">21TRD03118-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C58">
+        <is>
+          <t xml:space="preserve">HIMES</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D58">
+        <is>
+          <t xml:space="preserve">JEFFREY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E58">
+        <is>
+          <t xml:space="preserve">DUS                     M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F58">
+        <is>
+          <t xml:space="preserve">4510.11A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G58">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H58">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A59">
+        <is>
+          <t xml:space="preserve">21TRD03188</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B59">
+        <is>
+          <t xml:space="preserve">21TRD03188-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C59">
+        <is>
+          <t xml:space="preserve">HIMES</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D59">
+        <is>
+          <t xml:space="preserve">JEFFREY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E59">
+        <is>
+          <t xml:space="preserve">DUS                     M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F59">
+        <is>
+          <t xml:space="preserve">4510.11</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G59">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H59">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A60">
+        <is>
+          <t xml:space="preserve">21TRD03188</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B60">
+        <is>
+          <t xml:space="preserve">21TRD03188-B</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C60">
+        <is>
+          <t xml:space="preserve">HIMES</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D60">
+        <is>
+          <t xml:space="preserve">JEFFREY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E60">
+        <is>
+          <t xml:space="preserve">STOPPING AFTER ACCIDENT INFO</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F60">
+        <is>
+          <t xml:space="preserve">4549.02</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G60">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H60">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A61">
+        <is>
+          <t xml:space="preserve">21TRD03188</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B61">
+        <is>
+          <t xml:space="preserve">21TRD03188-C</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C61">
+        <is>
+          <t xml:space="preserve">HIMES</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D61">
+        <is>
+          <t xml:space="preserve">JEFFREY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E61">
+        <is>
+          <t xml:space="preserve">NO VALID OL   UCM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F61">
+        <is>
+          <t xml:space="preserve">4510.12</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G61">
+        <is>
+          <t xml:space="preserve">UCM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H61">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A62">
+        <is>
+          <t xml:space="preserve">21TRD03188</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B62">
+        <is>
+          <t xml:space="preserve">21TRD03188-D</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C62">
+        <is>
+          <t xml:space="preserve">HIMES</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D62">
+        <is>
+          <t xml:space="preserve">JEFFREY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E62">
+        <is>
+          <t xml:space="preserve">DRIVING IN MARKED LANES</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F62">
+        <is>
+          <t xml:space="preserve">4511.33</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G62">
+        <is>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H62">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A63">
+        <is>
+          <t xml:space="preserve">21TRD03188</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B63">
+        <is>
+          <t xml:space="preserve">21TRD03188-E</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C63">
+        <is>
+          <t xml:space="preserve">HIMES</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D63">
+        <is>
+          <t xml:space="preserve">JEFFREY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E63">
+        <is>
+          <t xml:space="preserve">SEATBELT REQUIRED DRIVER</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F63">
+        <is>
+          <t xml:space="preserve">4513.263B1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G63">
+        <is>
+          <t xml:space="preserve">UCM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H63">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A64">
+        <is>
+          <t xml:space="preserve">21TRD03188</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B64">
+        <is>
+          <t xml:space="preserve">21TRD03188-F</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C64">
+        <is>
+          <t xml:space="preserve">HIMES</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D64">
+        <is>
+          <t xml:space="preserve">JEFFREY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E64">
+        <is>
+          <t xml:space="preserve">DISTRACTED DRIVING</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F64">
+        <is>
+          <t xml:space="preserve">4511.991</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G64">
+        <is>
+          <t xml:space="preserve">UCM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H64">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A65">
+        <is>
+          <t xml:space="preserve">21TRD03189</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B65">
+        <is>
+          <t xml:space="preserve">21TRD03189-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C65">
+        <is>
+          <t xml:space="preserve">HIMES</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D65">
+        <is>
+          <t xml:space="preserve">JEFFREY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E65">
+        <is>
+          <t xml:space="preserve">DUS                     M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F65">
+        <is>
+          <t xml:space="preserve">4510.11</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G65">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H65">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A66">
+        <is>
+          <t xml:space="preserve">21TRD03189</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B66">
+        <is>
+          <t xml:space="preserve">21TRD03189-B</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C66">
+        <is>
+          <t xml:space="preserve">HIMES</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D66">
+        <is>
+          <t xml:space="preserve">JEFFREY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E66">
+        <is>
+          <t xml:space="preserve">STOPPING AFTER ACCIDENT INFO</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F66">
+        <is>
+          <t xml:space="preserve">4549.02</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G66">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H66">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A67">
+        <is>
+          <t xml:space="preserve">21TRD03189</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B67">
+        <is>
+          <t xml:space="preserve">21TRD03189-C</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C67">
+        <is>
+          <t xml:space="preserve">HIMES</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D67">
+        <is>
+          <t xml:space="preserve">JEFFREY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E67">
+        <is>
+          <t xml:space="preserve">NO VALID OL   UCM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F67">
+        <is>
+          <t xml:space="preserve">4510.12</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G67">
+        <is>
+          <t xml:space="preserve">UCM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H67">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A68">
+        <is>
+          <t xml:space="preserve">21TRD03189</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B68">
+        <is>
+          <t xml:space="preserve">21TRD03189-D</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C68">
+        <is>
+          <t xml:space="preserve">HIMES</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D68">
+        <is>
+          <t xml:space="preserve">JEFFREY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E68">
+        <is>
+          <t xml:space="preserve">DRIVING IN MARKED LANES</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F68">
+        <is>
+          <t xml:space="preserve">4511.33</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G68">
+        <is>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H68">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A69">
+        <is>
+          <t xml:space="preserve">21TRD03189</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B69">
+        <is>
+          <t xml:space="preserve">21TRD03189-E</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C69">
+        <is>
+          <t xml:space="preserve">HIMES</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D69">
+        <is>
+          <t xml:space="preserve">JEFFREY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E69">
+        <is>
+          <t xml:space="preserve">SEATBELT REQUIRED DRIVER</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F69">
+        <is>
+          <t xml:space="preserve">4513.263B1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G69">
+        <is>
+          <t xml:space="preserve">UCM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H69">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A70">
+        <is>
+          <t xml:space="preserve">21TRD03189</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B70">
+        <is>
+          <t xml:space="preserve">21TRD03189-F</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C70">
+        <is>
+          <t xml:space="preserve">HIMES</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D70">
+        <is>
+          <t xml:space="preserve">JEFFREY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E70">
+        <is>
+          <t xml:space="preserve">DISTRACTED DRIVING</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F70">
+        <is>
+          <t xml:space="preserve">4511.991</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G70">
+        <is>
+          <t xml:space="preserve">UCM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H70">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A71">
+        <is>
+          <t xml:space="preserve">21TRD03335</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B71">
+        <is>
+          <t xml:space="preserve">21TRD03335-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C71">
+        <is>
+          <t xml:space="preserve">COLEY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D71">
+        <is>
+          <t xml:space="preserve">AREANNA</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E71">
+        <is>
+          <t xml:space="preserve">DUS UNDER FRA OR JUDGMENT SUSP</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F71">
+        <is>
+          <t xml:space="preserve">4510.16</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G71">
+        <is>
+          <t xml:space="preserve">UCM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H71">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A72">
+        <is>
+          <t xml:space="preserve">21TRD03335</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B72">
+        <is>
+          <t xml:space="preserve">21TRD03335-B</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C72">
+        <is>
+          <t xml:space="preserve">COLEY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D72">
+        <is>
+          <t xml:space="preserve">AREANNA</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E72">
+        <is>
+          <t xml:space="preserve">DRIVING WITH NO HEADLIGHTS</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F72">
+        <is>
+          <t xml:space="preserve">4513.04</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G72">
+        <is>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H72">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A73">
+        <is>
+          <t xml:space="preserve">21TRD03335</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B73">
+        <is>
+          <t xml:space="preserve">21TRD03335-B</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C73">
+        <is>
+          <t xml:space="preserve">COLEY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D73">
+        <is>
+          <t xml:space="preserve">AREANNA</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E73">
+        <is>
+          <t xml:space="preserve">DRIVING WITH NO HEADLIGHTS</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F73">
+        <is>
+          <t xml:space="preserve">4513.04</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G73">
+        <is>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H73">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A74">
+        <is>
+          <t xml:space="preserve">21TRD09651</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B74">
+        <is>
+          <t xml:space="preserve">21TRD09651-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C74">
+        <is>
+          <t xml:space="preserve">BLEVINS</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D74">
+        <is>
+          <t xml:space="preserve">JEREMY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E74">
+        <is>
+          <t xml:space="preserve">DUS 12 POINT SUSPENSION</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F74">
+        <is>
+          <t xml:space="preserve">4511.21C*</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G74">
+        <is>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H74">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A75">
+        <is>
+          <t xml:space="preserve">21TRD09651</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B75">
+        <is>
+          <t xml:space="preserve">21TRD09651-B</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C75">
+        <is>
+          <t xml:space="preserve">BLEVINS</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D75">
+        <is>
+          <t xml:space="preserve">JEREMY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E75">
+        <is>
+          <t xml:space="preserve">OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F75">
+        <is>
+          <t xml:space="preserve">4510.037J</t>
+        </is>
+      </c>
+      <c s="1" t="str" r="G75"/>
+      <c s="1" t="inlineStr" r="H75">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A76">
+        <is>
+          <t xml:space="preserve">21TRD09651</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B76">
+        <is>
+          <t xml:space="preserve">21TRD09651-C</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C76">
+        <is>
+          <t xml:space="preserve">BLEVINS</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D76">
+        <is>
+          <t xml:space="preserve">JEREMY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E76">
+        <is>
+          <t xml:space="preserve">1ST SPEED 1 YR REDUCED ZONE</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F76">
+        <is>
+          <t xml:space="preserve">4510.12</t>
+        </is>
+      </c>
+      <c s="1" t="str" r="G76"/>
+      <c s="1" t="inlineStr" r="H76">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A77">
+        <is>
+          <t xml:space="preserve">21TRD09651</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B77">
+        <is>
+          <t xml:space="preserve">21TRD09651-D</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C77">
+        <is>
+          <t xml:space="preserve">BLEVINS</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D77">
+        <is>
+          <t xml:space="preserve">JEREMY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E77">
+        <is>
+          <t xml:space="preserve">BMV 12 Point Suspension</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F77">
+        <is>
+          <t xml:space="preserve">4510.037J</t>
+        </is>
+      </c>
+      <c s="1" t="str" r="G77"/>
+      <c s="1" t="inlineStr" r="H77">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A78">
+        <is>
+          <t xml:space="preserve">21TRD09651</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B78">
+        <is>
+          <t xml:space="preserve">21TRD09651-E</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C78">
+        <is>
+          <t xml:space="preserve">BLEVINS</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D78">
+        <is>
+          <t xml:space="preserve">JEREMY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E78">
+        <is>
+          <t xml:space="preserve">Operating Motor Vehicle Without A Valid License</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F78">
+        <is>
+          <t xml:space="preserve">4510.12</t>
+        </is>
+      </c>
+      <c s="1" t="str" r="G78"/>
+      <c s="1" t="inlineStr" r="H78">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A79">
+        <is>
+          <t xml:space="preserve">21TRD09812</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B79">
+        <is>
+          <t xml:space="preserve">21TRD09812-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C79">
+        <is>
+          <t xml:space="preserve">Miller</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D79">
+        <is>
+          <t xml:space="preserve">Brandon</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E79">
+        <is>
+          <t xml:space="preserve">STOPPING AFTER ACCIDENT INFO</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F79">
+        <is>
+          <t xml:space="preserve">4549.02</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G79">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H79">
+        <is>
+          <t xml:space="preserve">Y</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A80">
+        <is>
+          <t xml:space="preserve">21TRD09812</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B80">
+        <is>
+          <t xml:space="preserve">21TRD09812-B</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C80">
+        <is>
+          <t xml:space="preserve">Miller</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D80">
+        <is>
+          <t xml:space="preserve">Brandon</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E80">
+        <is>
+          <t xml:space="preserve">FAIL TO CONTROL</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F80">
+        <is>
+          <t xml:space="preserve">4511.202</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G80">
+        <is>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H80">
+        <is>
+          <t xml:space="preserve">Y</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A81">
+        <is>
+          <t xml:space="preserve">22CRB00108</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B81">
+        <is>
+          <t xml:space="preserve">22CRB00108-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C81">
+        <is>
+          <t xml:space="preserve">LAMB</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D81">
+        <is>
+          <t xml:space="preserve">JONATHAN</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E81">
+        <is>
+          <t xml:space="preserve">AGGRAVATED MENACING</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F81">
+        <is>
+          <t xml:space="preserve">2903.21</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G81">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H81">
+        <is>
+          <t xml:space="preserve">U</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A82">
+        <is>
+          <t xml:space="preserve">22CRB00108</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B82">
+        <is>
+          <t xml:space="preserve">22CRB00108-B</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C82">
+        <is>
+          <t xml:space="preserve">LAMB</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D82">
+        <is>
+          <t xml:space="preserve">JONATHAN</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E82">
+        <is>
+          <t xml:space="preserve">DOMESTIC VIOLENCE </t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F82">
+        <is>
+          <t xml:space="preserve">2919.25(C)</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G82">
+        <is>
+          <t xml:space="preserve">M4</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H82">
+        <is>
+          <t xml:space="preserve">U</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A83">
+        <is>
+          <t xml:space="preserve">22CRB00108</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B83">
+        <is>
+          <t xml:space="preserve">22CRB00108-C</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C83">
+        <is>
+          <t xml:space="preserve">LAMB</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D83">
+        <is>
+          <t xml:space="preserve">JONATHAN</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E83">
+        <is>
+          <t xml:space="preserve">DISORDERLY CONDUCT IST</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F83">
+        <is>
+          <t xml:space="preserve">2917.11</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G83">
+        <is>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H83">
+        <is>
+          <t xml:space="preserve">U</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A84">
+        <is>
+          <t xml:space="preserve">22CRB00120</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B84">
+        <is>
+          <t xml:space="preserve">22CRB00120-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C84">
+        <is>
+          <t xml:space="preserve">RAMIREZ</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D84">
+        <is>
+          <t xml:space="preserve">JOSEPH</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E84">
+        <is>
+          <t xml:space="preserve">RESISTING ARREST</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F84">
+        <is>
+          <t xml:space="preserve">2921.33(A)</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G84">
+        <is>
+          <t xml:space="preserve">M2</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H84">
+        <is>
+          <t xml:space="preserve">U</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A85">
+        <is>
+          <t xml:space="preserve">22CRB00126</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B85">
+        <is>
+          <t xml:space="preserve">22CRB00126-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C85">
+        <is>
+          <t xml:space="preserve">LAMB</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D85">
+        <is>
+          <t xml:space="preserve">JONATHAN</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E85">
+        <is>
+          <t xml:space="preserve">VIOLATING PROTECTION ORDER M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F85">
+        <is>
+          <t xml:space="preserve">2919.27A1*</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G85">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="str" r="H85"/>
+      <c s="2" t="b" r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" ht="17.95" customHeight="0">
+      <c s="1" t="inlineStr" r="A86">
+        <is>
+          <t xml:space="preserve">22TRC00118</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B86">
+        <is>
+          <t xml:space="preserve">22TRC00118-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C86">
+        <is>
+          <t xml:space="preserve">HOOVER</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D86">
+        <is>
+          <t xml:space="preserve">CANDACE</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E86">
+        <is>
+          <t xml:space="preserve">OVI ALCOHOL/DRUGS 1ST</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F86">
+        <is>
+          <t xml:space="preserve">4511.19A1D*</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G86">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H86">
+        <is>
+          <t xml:space="preserve">Y</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" ht="0.05" customHeight="1"/>
+    <row r="88" ht="23.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/db/Final_Pretrials.xlsx
+++ b/db/Final_Pretrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\AppData\Local\Programs\Python\Python310\MuniEntry\tests\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkudela\AppData\Local\Programs\Python\Python310\MuniEntry\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08364A0F-4BE2-49FF-B71D-56A340F54C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E31D5A-4B14-4FD2-A214-3EED8F4D3374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="6996" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MuniEntryPleas" sheetId="1" r:id="rId1"/>
@@ -20,43 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="127">
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>Sub Case</t>
-  </si>
-  <si>
-    <t>Lastname</t>
-  </si>
-  <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Insurance</t>
-  </si>
-  <si>
-    <t>Moving</t>
-  </si>
-  <si>
-    <t>Atty Last</t>
-  </si>
-  <si>
-    <t>Atty First</t>
-  </si>
-  <si>
-    <t>Atty Type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="126">
   <si>
     <t>17TRD22590</t>
   </si>
@@ -88,9 +52,6 @@
     <t>JOHN</t>
   </si>
   <si>
-    <t>PD</t>
-  </si>
-  <si>
     <t>20TRC09471</t>
   </si>
   <si>
@@ -401,6 +362,42 @@
   </si>
   <si>
     <t>4511.13C</t>
+  </si>
+  <si>
+    <t>DefFirstName</t>
+  </si>
+  <si>
+    <t>CaseNumber</t>
+  </si>
+  <si>
+    <t>SubCaseNumber</t>
+  </si>
+  <si>
+    <t>DefLastName</t>
+  </si>
+  <si>
+    <t>ChargeDescription</t>
+  </si>
+  <si>
+    <t>SectionCode</t>
+  </si>
+  <si>
+    <t>DegreeCode</t>
+  </si>
+  <si>
+    <t>InsuranceStatus</t>
+  </si>
+  <si>
+    <t>IsMoving</t>
+  </si>
+  <si>
+    <t>AttorneyLastName</t>
+  </si>
+  <si>
+    <t>AttorneyFirstName</t>
+  </si>
+  <si>
+    <t>PubDef</t>
   </si>
 </sst>
 </file>
@@ -460,13 +457,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,953 +874,955 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="12" width="13.73046875" customWidth="1"/>
+    <col min="1" max="12" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+    <row r="1" spans="1:12" ht="25.5">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="38.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="b">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="38.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="b">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="25.5">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2" t="b">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="25.5">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="2" t="b">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="38.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2" t="b">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="38.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="2" t="b">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="38.25">
       <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="2" t="b">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="38.25">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="2" t="b">
+      <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="38.25">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="2" t="b">
+      <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="25.5">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="2" t="b">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="38.25">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="2" t="b">
+        <v>7</v>
+      </c>
+      <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="38.25">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="2" t="b">
+        <v>7</v>
+      </c>
+      <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="38.25">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="25.5">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="38.25">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="38.25">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="38.25">
       <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="25.5">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="51">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="25.5">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="25.5">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="38.25">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="51">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="K24" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="25.5">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="25.5">
       <c r="A26" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="2" t="b">
+        <v>17</v>
+      </c>
+      <c r="I26" s="2">
         <v>0</v>
       </c>
       <c r="J26" s="1"/>
@@ -1829,105 +1831,104 @@
     </row>
     <row r="27" spans="1:12" ht="25.5">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="38.25">
       <c r="A28" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="38.25">
+    <row r="29" spans="1:12" ht="23.65" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I29" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="23.55" customHeight="1"/>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
